--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P10_trail3 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P10_trail3 Features.xlsx
@@ -5229,7 +5229,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z24"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5240,29 +5240,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="18" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5283,115 +5281,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -5408,72 +5396,66 @@
         <v>3.748015443017382e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.2870915461795922</v>
+        <v>1.671879812056647e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-0.950757949392063</v>
+        <v>3.220315255799219e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.671879812056647e-06</v>
+        <v>0.02711309892447273</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3.220315255799219e-06</v>
+        <v>0.2238715849040004</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.02711309892447273</v>
+        <v>0.0507641226886442</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2238715849040004</v>
+        <v>1.918515409492492</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.0507641226886442</v>
+        <v>2.597914437810761</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.932179926258803</v>
+        <v>5.250059349882679</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.597914437810761</v>
+        <v>1.225588072069044e-16</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>5.250059349882679</v>
+        <v>1561652167.954556</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.225588072069044e-16</v>
+        <v>7.744353520386576e-08</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>1561652167.954556</v>
+        <v>298.891209491973</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>7.744353520386576e-08</v>
+        <v>0.0001801676017525244</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>298.891209491973</v>
+        <v>9.974094680279697</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001801676017525244</v>
+        <v>1.569298156897967</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>9.974094680279697</v>
+        <v>0.01792353509660094</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.569298156897967</v>
+        <v>3.649038880740832</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01792353509660094</v>
+        <v>0.9625784817091018</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.649038880740832</v>
+        <v>1.313684604889921</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9625784817091018</v>
+        <v>53</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.313684604889921</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>1.739320032077396</v>
       </c>
     </row>
@@ -5488,72 +5470,66 @@
         <v>3.607747347825776e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.1172908136301453</v>
+        <v>1.284824096859511e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.394138728511587</v>
+        <v>3.226983718166884e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.284824096859511e-06</v>
+        <v>0.009743633639321051</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>3.226983718166884e-06</v>
+        <v>0.1883134492575318</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.009743633639321051</v>
+        <v>0.03550012027696438</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1883134492575318</v>
+        <v>1.913743114721697</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.03550012027696438</v>
+        <v>2.459909878575175</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.927659019643842</v>
+        <v>4.778789770168871</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>2.459909878575175</v>
+        <v>1.479234750553232e-16</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.778789770168871</v>
+        <v>1258324186.604031</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.479234750553232e-16</v>
+        <v>9.584476031317001e-08</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>1258324186.604031</v>
+        <v>234.2190362232903</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>9.584476031317001e-08</v>
+        <v>0.0001581676082760678</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>234.2190362232903</v>
+        <v>8.513652669781255</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001581676082760678</v>
+        <v>1.7466366694992</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>8.513652669781255</v>
+        <v>0.0114643491517993</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.7466366694992</v>
+        <v>3.440478762529294</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.0114643491517993</v>
+        <v>0.9627188461215986</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.440478762529294</v>
+        <v>1.322718843492042</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9627188461215986</v>
+        <v>45</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.322718843492042</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.8714895624290651</v>
       </c>
     </row>
@@ -5568,72 +5544,66 @@
         <v>3.592462449292796e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.1018823849718462</v>
+        <v>1.08721764251155e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.424573930621081</v>
+        <v>3.227785925450107e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.08721764251155e-06</v>
+        <v>-0.004675955414976151</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>3.227785925450107e-06</v>
+        <v>0.1555843217905963</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.004675955414976151</v>
+        <v>0.02419236892722226</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1555843217905963</v>
+        <v>1.921361312964503</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.02419236892722226</v>
+        <v>2.559878097233804</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.932720775817751</v>
+        <v>4.684246071463142</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.559878097233804</v>
+        <v>1.539549117237171e-16</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.684246071463142</v>
+        <v>1183710856.749079</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.539549117237171e-16</v>
+        <v>1.018703385068082e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>1183710856.749079</v>
+        <v>215.7172180245288</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.018703385068082e-07</v>
+        <v>0.0001318394833445462</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>215.7172180245288</v>
+        <v>8.783805454347775</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001318394833445462</v>
+        <v>1.264569386114922</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>8.783805454347775</v>
+        <v>0.01017210674950132</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.264569386114922</v>
+        <v>3.268002149652167</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01017210674950132</v>
+        <v>0.9623442281831908</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.268002149652167</v>
+        <v>1.297549863027894</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9623442281831908</v>
+        <v>50</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.297549863027894</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.6186828644322543</v>
       </c>
     </row>
@@ -5648,72 +5618,66 @@
         <v>3.641048122413318e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.1175839473816502</v>
+        <v>1.099200313767102e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.421246083928856</v>
+        <v>3.2238982737293e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.099200313767102e-06</v>
+        <v>-0.01632541370108078</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>3.2238982737293e-06</v>
+        <v>0.1258519305159532</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.01632541370108078</v>
+        <v>0.016080763982474</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1258519305159532</v>
+        <v>1.920003040255925</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.016080763982474</v>
+        <v>2.564514440333346</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.928420275200673</v>
+        <v>4.606018024308334</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.564514440333346</v>
+        <v>1.592288231491551e-16</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.606018024308334</v>
+        <v>1132399481.026796</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.592288231491551e-16</v>
+        <v>1.063359376515905e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>1132399481.026796</v>
+        <v>204.1836714211179</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.063359376515905e-07</v>
+        <v>0.0001341978826793076</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>204.1836714211179</v>
+        <v>9.504484226489485</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001341978826793076</v>
+        <v>1.181338324580048</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>9.504484226489485</v>
+        <v>0.0121227953106036</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.181338324580048</v>
+        <v>3.043688270944166</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.0121227953106036</v>
+        <v>0.9602134329214834</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.043688270944166</v>
+        <v>1.338788838772345</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9602134329214834</v>
+        <v>61</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.338788838772345</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.5196146856176606</v>
       </c>
     </row>
@@ -5728,72 +5692,66 @@
         <v>3.715122304412918e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.1137793912598453</v>
+        <v>1.11198756374799e-06</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.449463878766405</v>
+        <v>3.216089781263291e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.11198756374799e-06</v>
+        <v>-0.02565408179903879</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>3.216089781263291e-06</v>
+        <v>0.09931771204453683</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.02565408179903879</v>
+        <v>0.01050682932099074</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.09931771204453683</v>
+        <v>1.909454363364511</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.01050682932099074</v>
+        <v>2.488115501337911</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.922139875122051</v>
+        <v>4.261490634623984</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>2.488115501337911</v>
+        <v>1.860158173419786e-16</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.261490634623984</v>
+        <v>941699867.0938232</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.860158173419786e-16</v>
+        <v>1.274768141349386e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>941699867.0938232</v>
+        <v>164.9585737786716</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>1.274768141349386e-07</v>
+        <v>0.0001345113121219183</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>164.9585737786716</v>
+        <v>9.596844307952415</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001345113121219183</v>
+        <v>1.152141933104891</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>9.596844307952415</v>
+        <v>0.01238841392013532</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.152141933104891</v>
+        <v>2.970079996343417</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01238841392013532</v>
+        <v>0.9594897278471005</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.970079996343417</v>
+        <v>1.362195410638962</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9594897278471005</v>
+        <v>61</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.362195410638962</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.5193296896958728</v>
       </c>
     </row>
@@ -5808,72 +5766,66 @@
         <v>3.791106767393059e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.08492952806145911</v>
+        <v>1.125960560100416e-06</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.482936682943218</v>
+        <v>3.205052253798279e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.125960560100416e-06</v>
+        <v>-0.03272248855977813</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>3.205052253798279e-06</v>
+        <v>0.0782581003859265</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.03272248855977813</v>
+        <v>0.007186591240725184</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.0782581003859265</v>
+        <v>1.908081357988653</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.007186591240725184</v>
+        <v>2.505079792689839</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.920923262758275</v>
+        <v>4.107920857293611</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>2.505079792689839</v>
+        <v>2.001837477343979e-16</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.107920857293611</v>
+        <v>868947269.0026268</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>2.001837477343979e-16</v>
+        <v>1.37916311486525e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>868947269.0026268</v>
+        <v>151.1526135449594</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.37916311486525e-07</v>
+        <v>0.0001256478841472671</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>151.1526135449594</v>
+        <v>8.340166142945616</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001256478841472671</v>
+        <v>1.289271522838273</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>8.340166142945616</v>
+        <v>0.008739862177561812</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.289271522838273</v>
+        <v>3.267720456109157</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.008739862177561812</v>
+        <v>0.9604650414318578</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.267720456109157</v>
+        <v>1.325526589069978</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9604650414318578</v>
+        <v>61</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.325526589069978</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.589548352558814</v>
       </c>
     </row>
@@ -5888,72 +5840,66 @@
         <v>3.856777505188657e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.04081828880313151</v>
+        <v>1.140651773422811e-06</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.501151481938167</v>
+        <v>3.191464098704392e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1.140651773422811e-06</v>
+        <v>-0.03804406649798971</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>3.191464098704392e-06</v>
+        <v>0.06221262435516405</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.03804406649798971</v>
+        <v>0.005312732696715141</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.06221262435516405</v>
+        <v>1.907247130780166</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.005312732696715141</v>
+        <v>2.515330565129819</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.918683291940813</v>
+        <v>4.057120035363873</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>2.515330565129819</v>
+        <v>2.052282951046909e-16</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.057120035363873</v>
+        <v>840828848.7062837</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>2.052282951046909e-16</v>
+        <v>1.425508199439516e-07</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>840828848.7062837</v>
+        <v>145.0949994032686</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>1.425508199439516e-07</v>
+        <v>0.000133951378090055</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>145.0949994032686</v>
+        <v>7.817700297467904</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.000133951378090055</v>
+        <v>2.027579132652725</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>7.817700297467904</v>
+        <v>0.008186631086156257</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>2.027579132652725</v>
+        <v>3.44932657608772</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.008186631086156257</v>
+        <v>0.9606164699449784</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.44932657608772</v>
+        <v>1.34310338062535</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9606164699449784</v>
+        <v>61</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.34310338062535</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.6277269060916337</v>
       </c>
     </row>
@@ -5968,72 +5914,66 @@
         <v>3.906437560064707e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.009215370958090408</v>
+        <v>1.155625106773861e-06</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.500399700066242</v>
+        <v>3.175799074376149e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1.155625106773861e-06</v>
+        <v>-0.04251525244539518</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>3.175799074376149e-06</v>
+        <v>0.04775917094839016</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.04251525244539518</v>
+        <v>0.004084732470133901</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.04775917094839016</v>
+        <v>1.905284724028462</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.004084732470133901</v>
+        <v>2.447973683161031</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.920038876757677</v>
+        <v>4.043216466784184</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>2.447973683161031</v>
+        <v>2.066421752461621e-16</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.043216466784184</v>
+        <v>850115172.9833091</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>2.066421752461621e-16</v>
+        <v>1.409415843372444e-07</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>850115172.9833091</v>
+        <v>149.3394336692836</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>1.409415843372444e-07</v>
+        <v>0.0001171071147346714</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>149.3394336692836</v>
+        <v>7.448651669777852</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001171071147346714</v>
+        <v>1.417681869634534</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>7.448651669777852</v>
+        <v>0.006497385152436999</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.417681869634534</v>
+        <v>3.417999742980097</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.006497385152436999</v>
+        <v>0.9614030722901119</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.417999742980097</v>
+        <v>1.367788978058738</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9614030722901119</v>
+        <v>68</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.367788978058738</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>68</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.5835815619957774</v>
       </c>
     </row>
@@ -6048,72 +5988,66 @@
         <v>3.936329765427636e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.05828688503566905</v>
+        <v>1.170588650569191e-06</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-1.485172073798031</v>
+        <v>3.158314095119438e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>1.170588650569191e-06</v>
+        <v>-0.04642136383169605</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>3.158314095119438e-06</v>
+        <v>0.03336574210567862</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.04642136383169605</v>
+        <v>0.003266398557350841</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.03336574210567862</v>
+        <v>1.908166338383765</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.003266398557350841</v>
+        <v>2.42530310793201</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.922979566396793</v>
+        <v>4.049398478152604</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>2.42530310793201</v>
+        <v>2.060117165923747e-16</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>4.049398478152604</v>
+        <v>904430861.566121</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>2.060117165923747e-16</v>
+        <v>1.331221398606926e-07</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>904430861.566121</v>
+        <v>168.5165918868944</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>1.331221398606926e-07</v>
+        <v>0.0001229235024598907</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>168.5165918868944</v>
+        <v>8.783204732213616</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001229235024598907</v>
+        <v>1.220928716947899</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>8.783204732213616</v>
+        <v>0.00948289492159834</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.220928716947899</v>
+        <v>3.137605483794889</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.00948289492159834</v>
+        <v>0.9612166799538238</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>3.137605483794889</v>
+        <v>1.317855349263851</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9612166799538238</v>
+        <v>88</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.317855349263851</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>88</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.5144608331479491</v>
       </c>
     </row>
@@ -6128,72 +6062,66 @@
         <v>3.946851602079095e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.1019226907982652</v>
+        <v>1.185170983091489e-06</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.464187121107968</v>
+        <v>3.139434804580909e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1.185170983091489e-06</v>
+        <v>-0.04909790789273612</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>3.139434804580909e-06</v>
+        <v>0.02378567344038711</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.04909790789273612</v>
+        <v>0.0029760925565716</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.02378567344038711</v>
+        <v>1.909985635805952</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.0029760925565716</v>
+        <v>2.32495470546174</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.923956561899402</v>
+        <v>4.099032865103599</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>2.32495470546174</v>
+        <v>2.010528115413136e-16</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>4.099032865103599</v>
+        <v>928439346.1354957</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>2.010528115413136e-16</v>
+        <v>1.297729793824253e-07</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>928439346.1354957</v>
+        <v>173.3074470384689</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>1.297729793824253e-07</v>
+        <v>0.0001272343242505771</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>173.3074470384689</v>
+        <v>8.981905480175298</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001272343242505771</v>
+        <v>1.220313197546342</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>8.981905480175298</v>
+        <v>0.01026458153025087</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.220313197546342</v>
+        <v>3.054494612247721</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.01026458153025087</v>
+        <v>0.9607611446847961</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>3.054494612247721</v>
+        <v>1.315344657085811</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9607611446847961</v>
+        <v>88</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.315344657085811</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>88</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.506944715788755</v>
       </c>
     </row>
@@ -6208,72 +6136,66 @@
         <v>3.942964779708724e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.1398750647244949</v>
+        <v>1.199426180103549e-06</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.442797697080066</v>
+        <v>3.119726409188776e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>1.199426180103549e-06</v>
+        <v>-0.05061758679794033</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>3.119726409188776e-06</v>
+        <v>0.01975376994246885</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.05061758679794033</v>
+        <v>0.002952572891795246</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.01975376994246885</v>
+        <v>1.910679003729366</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.002952572891795246</v>
+        <v>2.325288114738626</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.929912284953777</v>
+        <v>4.20690026334151</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>2.325288114738626</v>
+        <v>1.908747668678363e-16</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4.20690026334151</v>
+        <v>1013752623.086451</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>1.908747668678363e-16</v>
+        <v>1.192261213859237e-07</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>1013752623.086451</v>
+        <v>196.1609253493837</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>1.192261213859237e-07</v>
+        <v>0.0001200298386210898</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>196.1609253493837</v>
+        <v>8.315813572456928</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001200298386210898</v>
+        <v>1.157944852666549</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>8.315813572456928</v>
+        <v>0.008300394067487919</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.157944852666549</v>
+        <v>3.240308561575332</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.008300394067487919</v>
+        <v>0.9617236936137303</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>3.240308561575332</v>
+        <v>1.343762540931351</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9617236936137303</v>
+        <v>115</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.343762540931351</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>115</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.6352760334267219</v>
       </c>
     </row>
@@ -6288,72 +6210,66 @@
         <v>3.930117098223873e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.1741829395923747</v>
+        <v>1.211529438424108e-06</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.420911316392374</v>
+        <v>3.099628406704805e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1.211529438424108e-06</v>
+        <v>-0.05137491508060078</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>3.099628406704805e-06</v>
+        <v>0.01876023733466182</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.05137491508060078</v>
+        <v>0.002991563106097815</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.01876023733466182</v>
+        <v>1.910445253629263</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.002991563106097815</v>
+        <v>2.227486885554702</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.927932388077586</v>
+        <v>4.444809377811084</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>2.227486885554702</v>
+        <v>1.709884087906092e-16</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>4.444809377811084</v>
+        <v>1131130632.697551</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>1.709884087906092e-16</v>
+        <v>1.067502029103596e-07</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>1131130632.697551</v>
+        <v>218.7722324584828</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>1.067502029103596e-07</v>
+        <v>0.0001117026023454681</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>218.7722324584828</v>
+        <v>8.094682455884969</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001117026023454681</v>
+        <v>1.810431976646929</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>8.094682455884969</v>
+        <v>0.007319188365464793</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.810431976646929</v>
+        <v>3.639985636855045</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.007319188365464793</v>
+        <v>0.9604763420622027</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>3.639985636855045</v>
+        <v>1.304203395572296</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9604763420622027</v>
+        <v>156</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.304203395572296</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>156</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>1.068172748685892</v>
       </c>
     </row>
@@ -6368,72 +6284,66 @@
         <v>3.912151354986816e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.2068548048925267</v>
+        <v>1.213526806288411e-06</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.396444865392194</v>
+        <v>3.079407913924409e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>1.213526806288411e-06</v>
+        <v>-0.05169722783654521</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>3.079407913924409e-06</v>
+        <v>0.01874644557964777</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.05169722783654521</v>
+        <v>0.003024194057224848</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.01874644557964777</v>
+        <v>1.912334317755803</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.003024194057224848</v>
+        <v>2.179708285770934</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.93042621022143</v>
+        <v>5.021943117608755</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>2.179708285770934</v>
+        <v>1.339458840654001e-16</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>5.021943117608755</v>
+        <v>1369415610.646412</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>1.339458840654001e-16</v>
+        <v>8.823678554590822e-08</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>1369415610.646412</v>
+        <v>251.188597803154</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>8.823678554590822e-08</v>
+        <v>9.882909626767593e-05</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>251.188597803154</v>
+        <v>7.817125811570198</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>9.882909626767593e-05</v>
+        <v>2.346939824413379</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>7.817125811570198</v>
+        <v>0.006039194647142433</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>2.346939824413379</v>
+        <v>4.204788407175075</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.006039194647142433</v>
+        <v>0.9592432521563462</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>4.204788407175075</v>
+        <v>1.30077340883949</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9592432521563462</v>
+        <v>158</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.30077340883949</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>158</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>1.894709414667451</v>
       </c>
     </row>
@@ -6448,72 +6358,66 @@
         <v>3.89116102855149e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.2391834576249351</v>
+        <v>1.209955662009121e-06</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.367591445016872</v>
+        <v>3.059208285265281e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>1.209955662009121e-06</v>
+        <v>-0.05182347301810082</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>3.059208285265281e-06</v>
+        <v>0.01894458371264492</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.05182347301810082</v>
+        <v>0.003044702480014474</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.01894458371264492</v>
+        <v>1.923566606933299</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.003044702480014474</v>
+        <v>2.155286896827716</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.944190335953585</v>
+        <v>6.307052825140241</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>2.155286896827716</v>
+        <v>6.76905308507155e-17</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>6.307052825140241</v>
+        <v>2738011967.028998</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>6.76905308507155e-17</v>
+        <v>4.4192247619421e-08</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>2738011967.028998</v>
+        <v>507.4562478272169</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>4.4192247619421e-08</v>
+        <v>7.953723014470309e-05</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>507.4562478272169</v>
+        <v>6.592001305797313</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>7.953723014470309e-05</v>
+        <v>1.954992776787219</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>6.592001305797313</v>
+        <v>0.003456249073266518</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.954992776787219</v>
+        <v>4.475283576736001</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.003456249073266518</v>
+        <v>0.9591663083080988</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>4.475283576736001</v>
+        <v>1.346017125135552</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9591663083080988</v>
+        <v>158</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.346017125135552</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>158</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>2.547979589049103</v>
       </c>
     </row>
@@ -6528,72 +6432,66 @@
         <v>3.867707744837386e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.2716164151704266</v>
+        <v>1.205872759537074e-06</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.33362717113221</v>
+        <v>3.039078732179861e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1.205872759537074e-06</v>
+        <v>-0.05196130206437644</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>3.039078732179861e-06</v>
+        <v>0.01917683815574793</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.05196130206437644</v>
+        <v>0.003067901987892684</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.01917683815574793</v>
+        <v>1.924001936398107</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.003067901987892684</v>
+        <v>2.627128161000339</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.958517707312354</v>
+        <v>4.692075169984173</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>2.627128161000339</v>
+        <v>5.460426774285061e-17</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.692075169984173</v>
+        <v>3282086205.280097</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>5.460426774285061e-17</v>
+        <v>3.679019548998052e-08</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>3282086205.280097</v>
+        <v>588.2020788048704</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>3.679019548998052e-08</v>
+        <v>7.791729137684171e-05</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>588.2020788048704</v>
+        <v>7.067148329587975</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>7.791729137684171e-05</v>
+        <v>1.624352677217251</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>7.067148329587975</v>
+        <v>0.00389154682206511</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.624352677217251</v>
+        <v>4.591216417234837</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.00389154682206511</v>
+        <v>0.9583601501585687</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>4.591216417234837</v>
+        <v>1.122836989675229</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9583601501585687</v>
+        <v>155</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.122836989675229</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>155</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>3.252242599804968</v>
       </c>
     </row>
@@ -6608,72 +6506,66 @@
         <v>3.840990737967708e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.3037790044013314</v>
+        <v>1.205545172569781e-06</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.295173236560974</v>
+        <v>3.018991691961099e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>1.205545172569781e-06</v>
+        <v>-0.05230724216018522</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>3.018991691961099e-06</v>
+        <v>0.01931528384890977</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.05230724216018522</v>
+        <v>0.003109385787352218</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.01931528384890977</v>
+        <v>1.913865908339879</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.003109385787352218</v>
+        <v>2.573419717655157</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.956911345694994</v>
+        <v>4.567219276687077</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>2.573419717655157</v>
+        <v>4.581763521238367e-17</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.567219276687077</v>
+        <v>3836836556.340837</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>4.581763521238367e-17</v>
+        <v>3.130425000890386e-08</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>3836836556.340837</v>
+        <v>674.4958295237229</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>3.130425000890386e-08</v>
+        <v>9.226388602662085e-05</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>674.4958295237229</v>
+        <v>8.86272055123438</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>9.226388602662085e-05</v>
+        <v>1.283576010243055</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>8.86272055123438</v>
+        <v>0.00724712670332337</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.283576010243055</v>
+        <v>4.447686653059068</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.00724712670332337</v>
+        <v>0.9577881426172902</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>4.447686653059068</v>
+        <v>1.090690377914193</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9577881426172902</v>
+        <v>155</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.090690377914193</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>155</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>3.380999865012206</v>
       </c>
     </row>
@@ -6688,72 +6580,66 @@
         <v>3.808836838091227e-07</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.3343668524268942</v>
+        <v>1.213459287796003e-06</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-1.254701724700335</v>
+        <v>2.99885052278533e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>1.213459287796003e-06</v>
+        <v>-0.05306764443978074</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>2.99885052278533e-06</v>
+        <v>0.01891573635084256</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.05306764443978074</v>
+        <v>0.003174292819103847</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.01891573635084256</v>
+        <v>1.909315976870599</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.003174292819103847</v>
+        <v>2.832297144219435</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.954311235948173</v>
+        <v>4.780617004985079</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>2.832297144219435</v>
+        <v>4.458975774763501e-17</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>4.780617004985079</v>
+        <v>3940897389.895021</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>4.458975774763501e-17</v>
+        <v>3.046845114922512e-08</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>3940897389.895021</v>
+        <v>692.5089127361339</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>3.046845114922512e-08</v>
+        <v>0.0001315831987386027</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>692.5089127361339</v>
+        <v>11.72141254483449</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0001315831987386027</v>
+        <v>1.119379174462694</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>11.72141254483449</v>
+        <v>0.01807841463457269</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.119379174462694</v>
+        <v>4.097270129025824</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.01807841463457269</v>
+        <v>0.9575765628355132</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>4.097270129025824</v>
+        <v>1.114748803400188</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9575765628355132</v>
+        <v>155</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.114748803400188</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>155</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>3.7501095964748</v>
       </c>
     </row>
@@ -6768,72 +6654,66 @@
         <v>3.768457184466694e-07</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.3613451797287096</v>
+        <v>1.2228068208289e-06</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-1.216787252797521</v>
+        <v>2.978542978240712e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>1.2228068208289e-06</v>
+        <v>-0.05407642658117266</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>2.978542978240712e-06</v>
+        <v>0.01817568106673356</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.05407642658117266</v>
+        <v>0.003254936317669003</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.01817568106673356</v>
+        <v>1.90901994804185</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.003254936317669003</v>
+        <v>2.782443360072858</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.954529731518175</v>
+        <v>4.606772899836889</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>2.782443360072858</v>
+        <v>4.809384185587523e-17</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>4.606772899836889</v>
+        <v>3643536775.577636</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>4.809384185587523e-17</v>
+        <v>3.29758008052512e-08</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>3643536775.577636</v>
+        <v>638.4630757212237</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>3.29758008052512e-08</v>
+        <v>0.0001394954311622043</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>638.4630757212237</v>
+        <v>12.56371202783137</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0001394954311622043</v>
+        <v>1.053288966474135</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>12.56371202783137</v>
+        <v>0.02201891578189977</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.053288966474135</v>
+        <v>4.15694871428014</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.02201891578189977</v>
+        <v>0.9599229103342992</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>4.15694871428014</v>
+        <v>1.080495124604842</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9599229103342992</v>
+        <v>136</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.080495124604842</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>136</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>4.453603226511838</v>
       </c>
     </row>
@@ -6848,72 +6728,66 @@
         <v>3.720715049500256e-07</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.384894656464546</v>
+        <v>1.219930201033789e-06</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-1.182433851472518</v>
+        <v>2.958167618066217e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>1.219930201033789e-06</v>
+        <v>-0.05464352251546836</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>2.958167618066217e-06</v>
+        <v>0.01853592533701493</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.05464352251546836</v>
+        <v>0.003329689621871087</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.01853592533701493</v>
+        <v>1.907260105062038</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.003329689621871087</v>
+        <v>2.586670513745394</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.957402987847456</v>
+        <v>4.757136973378325</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>2.586670513745394</v>
+        <v>5.0475819328413e-17</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>4.757136973378325</v>
+        <v>3481358918.65456</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>5.0475819328413e-17</v>
+        <v>3.446132799974502e-08</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>3481358918.65456</v>
+        <v>611.7598596326121</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>3.446132799974502e-08</v>
+        <v>0.0001144587151150086</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>611.7598596326121</v>
+        <v>11.41584713756812</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001144587151150086</v>
+        <v>1.135201810194901</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>11.41584713756812</v>
+        <v>0.01491643898106412</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.135201810194901</v>
+        <v>4.74087088073435</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.01491643898106412</v>
+        <v>0.9608390878182367</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>4.74087088073435</v>
+        <v>0.9077953501446978</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9608390878182367</v>
+        <v>125</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>0.9077953501446978</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>125</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>5.280537462796071</v>
       </c>
     </row>
@@ -6928,72 +6802,66 @@
         <v>3.668739167984182e-07</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.407180781860971</v>
+        <v>1.20755719215126e-06</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-1.148088122198401</v>
+        <v>2.937931063668592e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>1.20755719215126e-06</v>
+        <v>-0.05485609389112799</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>2.937931063668592e-06</v>
+        <v>0.01925329129243192</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.05485609389112799</v>
+        <v>0.003380006889993821</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.01925329129243192</v>
+        <v>1.910272810821765</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.003380006889993821</v>
+        <v>2.501052542372364</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.958641862475578</v>
+        <v>4.915792206255535</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>2.501052542372364</v>
+        <v>4.136309165822852e-17</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>4.915792206255535</v>
+        <v>4242609278.941009</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>4.136309165822852e-17</v>
+        <v>2.833676448524277e-08</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>4242609278.941009</v>
+        <v>744.5246263259297</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>2.833676448524277e-08</v>
+        <v>5.802607794643059e-05</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>744.5246263259297</v>
+        <v>9.971262672975906</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>5.802607794643059e-05</v>
+        <v>1.173644135827537</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>9.971262672975906</v>
+        <v>0.00576930542699161</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.173644135827537</v>
+        <v>5.893712237683289</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.00576930542699161</v>
+        <v>0.9613168660494471</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>5.893712237683289</v>
+        <v>0.9063524112930554</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9613168660494471</v>
+        <v>125</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>0.9063524112930554</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>125</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>7.956282479541578</v>
       </c>
     </row>
@@ -7008,72 +6876,66 @@
         <v>3.61361960408735e-07</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.4292570705373152</v>
+        <v>1.19246996383028e-06</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-1.112033849377696</v>
+        <v>2.917930163399821e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>1.19246996383028e-06</v>
+        <v>-0.05499661749187485</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>2.917930163399821e-06</v>
+        <v>0.02009125605582682</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.05499661749187485</v>
+        <v>0.003428438854865224</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.02009125605582682</v>
+        <v>1.913537223689244</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.003428438854865224</v>
+        <v>2.614062340403937</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.958005024994195</v>
+        <v>5.055680092290689</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>2.614062340403937</v>
+        <v>3.466620205572004e-17</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>5.055680092290689</v>
+        <v>5045617766.627738</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>3.466620205572004e-17</v>
+        <v>2.386051379552099e-08</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>5045617766.627738</v>
+        <v>882.5411382405459</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>2.386051379552099e-08</v>
+        <v>3.773844758594652e-05</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>882.5411382405459</v>
+        <v>8.993399832848738</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>3.773844758594652e-05</v>
+        <v>1.227757073737914</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>8.993399832848738</v>
+        <v>0.003052332457313977</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.227757073737914</v>
+        <v>6.434194278951049</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.003052332457313977</v>
+        <v>0.9614998606998685</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>6.434194278951049</v>
+        <v>0.8730511048476052</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9614998606998685</v>
+        <v>125</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>0.8730511048476052</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>125</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>9.483895731523708</v>
       </c>
     </row>
@@ -7088,72 +6950,66 @@
         <v>3.554789851384679e-07</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.4509157496693777</v>
+        <v>1.178427938689537e-06</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-1.075175059737537</v>
+        <v>2.898175994563647e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>1.178427938689537e-06</v>
+        <v>-0.05524749257558698</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>2.898175994563647e-06</v>
+        <v>0.02108837154682034</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.05524749257558698</v>
+        <v>0.003497237956345892</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.02108837154682034</v>
+        <v>1.91123322321202</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.003497237956345892</v>
+        <v>2.61156620309757</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.957202678527138</v>
+        <v>5.928875766056162</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>2.61156620309757</v>
+        <v>3.397590093457732e-17</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>5.928875766056162</v>
+        <v>5297990699.744762</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>3.397590093457732e-17</v>
+        <v>2.273466125855854e-08</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>5297990699.744762</v>
+        <v>953.6595558867082</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>2.273466125855854e-08</v>
+        <v>5.556730724703741e-05</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>953.6595558867082</v>
+        <v>10.36391205297573</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>5.556730724703741e-05</v>
+        <v>1.167165029561283</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>10.36391205297573</v>
+        <v>0.005968521870525644</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.167165029561283</v>
+        <v>5.791516234253097</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.005968521870525644</v>
+        <v>0.9599659558343805</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>5.791516234253097</v>
+        <v>0.8740031748046733</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9599659558343805</v>
+        <v>125</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>0.8740031748046733</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>125</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>7.204291002573482</v>
       </c>
     </row>
@@ -7168,72 +7024,66 @@
         <v>3.490974792145733e-07</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.4712466810527549</v>
+        <v>1.163597390013939e-06</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-1.040277711321056</v>
+        <v>2.878650805841639e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>1.163597390013939e-06</v>
+        <v>-0.05554971042423259</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>2.878650805841639e-06</v>
+        <v>0.02227846006571143</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.05554971042423259</v>
+        <v>0.00358226747873149</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.02227846006571143</v>
+        <v>1.919340499764859</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.00358226747873149</v>
+        <v>2.503060316303449</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.959183466156678</v>
+        <v>6.380054017203214</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>2.503060316303449</v>
+        <v>4.355289882771413e-17</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>6.380054017203214</v>
+        <v>4059503455.400632</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>4.355289882771413e-17</v>
+        <v>2.972932089248624e-08</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>4059503455.400632</v>
+        <v>717.7329710863589</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>2.972932089248624e-08</v>
+        <v>9.323313347137675e-05</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>717.7329710863589</v>
+        <v>12.0299545517845</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>9.323313347137675e-05</v>
+        <v>1.094380502312917</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>12.0299545517845</v>
+        <v>0.01349268103704457</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.094380502312917</v>
+        <v>4.939043534454709</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.01349268103704457</v>
+        <v>0.9586744747617223</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>4.939043534454709</v>
+        <v>0.9375893205923849</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9586744747617223</v>
+        <v>90</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>0.9375893205923849</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>90</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>5.107645238879705</v>
       </c>
     </row>
@@ -7610,7 +7460,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.49156077795064</v>
+        <v>1.494887682002124</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.470821344911583</v>
@@ -7699,7 +7549,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.488690984712779</v>
+        <v>1.490030466837673</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.271212247112869</v>
@@ -7788,7 +7638,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.518237474795428</v>
+        <v>1.516887576335807</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.590413295028586</v>
@@ -7877,7 +7727,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.520169311018104</v>
+        <v>1.518991513641042</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.700264598672755</v>
@@ -7966,7 +7816,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.535752462593672</v>
+        <v>1.533325766611898</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.601270793451723</v>
@@ -8055,7 +7905,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.532100897463749</v>
+        <v>1.525324712531149</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.421697698507141</v>
@@ -8144,7 +7994,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.544595460906488</v>
+        <v>1.534894845680277</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.744633405481161</v>
@@ -8233,7 +8083,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.557196404777991</v>
+        <v>1.554483811160302</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.639291536718467</v>
@@ -8322,7 +8172,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.55227626157404</v>
+        <v>1.550233494382935</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.504451641294384</v>
@@ -8411,7 +8261,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.544275189989628</v>
+        <v>1.542574008876114</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.426562246994419</v>
@@ -8500,7 +8350,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.544208363474216</v>
+        <v>1.543986836574159</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.58225509741323</v>
@@ -8589,7 +8439,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.571117300288393</v>
+        <v>1.565730546952301</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.48223003984097</v>
@@ -8678,7 +8528,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.580848182604381</v>
+        <v>1.582007141254193</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.501756744710192</v>
@@ -8767,7 +8617,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.579978334283581</v>
+        <v>1.579599515636421</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.429283485182929</v>
@@ -8856,7 +8706,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.618491390839522</v>
+        <v>1.609897434926147</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.468789858256297</v>
@@ -8945,7 +8795,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.622256475286574</v>
+        <v>1.612605829250094</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.375974157449958</v>
@@ -9034,7 +8884,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.668914651920646</v>
+        <v>1.655809496096568</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.632104972946057</v>
@@ -9123,7 +8973,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.672397028641301</v>
+        <v>1.665070335714897</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.827613074613474</v>
@@ -9212,7 +9062,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.691905161177483</v>
+        <v>1.684558599421859</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.573125863935894</v>
@@ -9301,7 +9151,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.698603294989288</v>
+        <v>1.686967933327386</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.844066010168471</v>
@@ -9390,7 +9240,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.710391776595831</v>
+        <v>1.702207268990425</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.704158160155878</v>
@@ -9479,7 +9329,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.734715520081469</v>
+        <v>1.729616991864285</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.597431448696266</v>
@@ -9568,7 +9418,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.735553390714186</v>
+        <v>1.730229539193944</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.729729819791496</v>
@@ -9657,7 +9507,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.741915726682435</v>
+        <v>1.740185342125512</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.784640288071886</v>
@@ -9746,7 +9596,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.775352723554082</v>
+        <v>1.768093749177335</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.292658866669999</v>
@@ -9835,7 +9685,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.781161479918035</v>
+        <v>1.775154825509471</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.665767521915582</v>
@@ -9924,7 +9774,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.781257195468596</v>
+        <v>1.772502964850267</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.606396914482935</v>
@@ -10013,7 +9863,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.790855343835679</v>
+        <v>1.775608748496708</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.857419682957512</v>
@@ -10102,7 +9952,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.779740440532591</v>
+        <v>1.766163446562526</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.498222706061862</v>
@@ -10191,7 +10041,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.791232972018737</v>
+        <v>1.779055393375267</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.449328988321622</v>
@@ -10280,7 +10130,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.788433604350628</v>
+        <v>1.767907831622118</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.374901514122802</v>
@@ -10369,7 +10219,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.784692345041192</v>
+        <v>1.763155305006256</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.546967252611551</v>
@@ -10458,7 +10308,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.733131651348179</v>
+        <v>1.721454571983778</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.112499013847581</v>
@@ -10547,7 +10397,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.728307924027813</v>
+        <v>1.714933514719223</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.969178646542865</v>
@@ -10636,7 +10486,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.723085813231995</v>
+        <v>1.711982586544776</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.745565272771383</v>
@@ -10725,7 +10575,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.724889010538994</v>
+        <v>1.711706404906988</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.89647678380936</v>
@@ -10814,7 +10664,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.716788462682949</v>
+        <v>1.700230162948525</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.687082796716133</v>
@@ -10903,7 +10753,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.675394276327765</v>
+        <v>1.664013690871897</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.533351582533786</v>
@@ -10992,7 +10842,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.672248639912967</v>
+        <v>1.657018829943761</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.65698367484717</v>
@@ -11081,7 +10931,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.673871314851086</v>
+        <v>1.657342561521982</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.454537442364526</v>
@@ -11170,7 +11020,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.676331775847015</v>
+        <v>1.65425493684293</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.44581686707597</v>
@@ -11259,7 +11109,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.662046683799098</v>
+        <v>1.641577263383045</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.566706321157394</v>
@@ -11348,7 +11198,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.641670629520005</v>
+        <v>1.629157106411493</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.494461583306597</v>
@@ -11437,7 +11287,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.611589173953399</v>
+        <v>1.606007042049289</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.505241948131562</v>
@@ -11526,7 +11376,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.616931342844296</v>
+        <v>1.610702009338044</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.545983042547732</v>
@@ -11615,7 +11465,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.609762724820736</v>
+        <v>1.604271411052568</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.50699202224584</v>
@@ -11704,7 +11554,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.584765148684937</v>
+        <v>1.586840563104555</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.543533028237463</v>
@@ -11793,7 +11643,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.621460482305551</v>
+        <v>1.623960329783136</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.443113415923772</v>
@@ -11882,7 +11732,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.620535862919478</v>
+        <v>1.624301000358879</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.451270271710255</v>
@@ -11971,7 +11821,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.618764955973171</v>
+        <v>1.625643783210048</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.480955101693092</v>
@@ -12060,7 +11910,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.614239949572054</v>
+        <v>1.619286572242749</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.503809098085407</v>
@@ -12149,7 +11999,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.637814552426515</v>
+        <v>1.636843973111559</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.208814978805618</v>
@@ -12238,7 +12088,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.629237259824482</v>
+        <v>1.636168944141229</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.55278758358654</v>
@@ -12327,7 +12177,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.625929915725642</v>
+        <v>1.634014241988313</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.639022770592214</v>
@@ -12416,7 +12266,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.62149290643337</v>
+        <v>1.629582256415588</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.578544414968245</v>
@@ -12505,7 +12355,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.614644946359586</v>
+        <v>1.623255484161569</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.685216155717269</v>
@@ -12594,7 +12444,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.639324257852703</v>
+        <v>1.645959674027993</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.635706381891184</v>
@@ -12683,7 +12533,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.637190663724295</v>
+        <v>1.638187169707896</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.241294458745446</v>
@@ -12772,7 +12622,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.665986748129005</v>
+        <v>1.669069551648604</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.946340884130731</v>
@@ -12861,7 +12711,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.62285285241441</v>
+        <v>1.629836088364508</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.93187335556635</v>
@@ -12950,7 +12800,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.642048414097133</v>
+        <v>1.647754303409238</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.455011679872711</v>
@@ -13039,7 +12889,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.635963427672774</v>
+        <v>1.644462680847809</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.952651777050494</v>
@@ -13128,7 +12978,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.629829965846507</v>
+        <v>1.638035846419918</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.942050412735386</v>
@@ -13217,7 +13067,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.62516450090352</v>
+        <v>1.632068041251111</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.898849479847436</v>
@@ -13306,7 +13156,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.627199541801262</v>
+        <v>1.633768016625765</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.841643556124333</v>
@@ -13395,7 +13245,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.630375628604563</v>
+        <v>1.632340853206862</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.926856497617866</v>
@@ -13484,7 +13334,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.628102460554613</v>
+        <v>1.629140390015249</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.839418974529334</v>
@@ -13573,7 +13423,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.643410087827172</v>
+        <v>1.638586881557935</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.79932416689129</v>
@@ -13859,7 +13709,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.616853205409762</v>
+        <v>1.613624995238004</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.682454914504083</v>
@@ -13948,7 +13798,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.61756503515491</v>
+        <v>1.613573352274329</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.411648313228502</v>
@@ -14037,7 +13887,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.622455968495896</v>
+        <v>1.616058996025191</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.740903575978336</v>
@@ -14126,7 +13976,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.637981981537933</v>
+        <v>1.634100839172126</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.513571017943553</v>
@@ -14215,7 +14065,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.671548018296973</v>
+        <v>1.663737591830068</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.762980212640319</v>
@@ -14304,7 +14154,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.667608229968229</v>
+        <v>1.655802899879359</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.539564957840804</v>
@@ -14393,7 +14243,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.687729512792916</v>
+        <v>1.675950154175649</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.298615081788746</v>
@@ -14482,7 +14332,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.686263012491831</v>
+        <v>1.677317897003013</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.462934236285251</v>
@@ -14571,7 +14421,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.688605873499816</v>
+        <v>1.681605889995648</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.45322290787817</v>
@@ -14660,7 +14510,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.690465017784771</v>
+        <v>1.68295853895623</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.917383606653273</v>
@@ -14749,7 +14599,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.682485198814889</v>
+        <v>1.675805129826105</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.072552215781044</v>
@@ -14838,7 +14688,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.685112716682733</v>
+        <v>1.674325732530327</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.768187934660389</v>
@@ -14927,7 +14777,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.721641894290133</v>
+        <v>1.711392032615336</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.819006424307585</v>
@@ -15016,7 +14866,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.723362233427652</v>
+        <v>1.719817535558452</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.143649752453924</v>
@@ -15105,7 +14955,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.737276780467116</v>
+        <v>1.729850753788216</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.895330969454593</v>
@@ -15194,7 +15044,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.726947557834714</v>
+        <v>1.723824048590979</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.016726462259915</v>
@@ -15283,7 +15133,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.739748408006552</v>
+        <v>1.73518533433461</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.400442278768039</v>
@@ -15372,7 +15222,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.751200934562951</v>
+        <v>1.748536872073374</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.034848632074962</v>
@@ -15461,7 +15311,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.750810216243945</v>
+        <v>1.748958472362806</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.897999008826808</v>
@@ -15550,7 +15400,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.754404605797092</v>
+        <v>1.750997254761891</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.964316065134006</v>
@@ -15639,7 +15489,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.763517344839611</v>
+        <v>1.764361417822533</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.009244019842391</v>
@@ -15728,7 +15578,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.766851783360731</v>
+        <v>1.764228142116236</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.11557029031401</v>
@@ -15817,7 +15667,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.763005116515554</v>
+        <v>1.763584124583476</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.099909150656361</v>
@@ -15906,7 +15756,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.762432590460012</v>
+        <v>1.764175065061383</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.856294218380148</v>
@@ -15995,7 +15845,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.772983937059185</v>
+        <v>1.774493477223874</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.189228792614092</v>
@@ -16084,7 +15934,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.773823721272082</v>
+        <v>1.777854712288482</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.396476312328064</v>
@@ -16173,7 +16023,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.783139115294156</v>
+        <v>1.786407497327756</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.328139265714892</v>
@@ -16262,7 +16112,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.785676034725485</v>
+        <v>1.790177223858863</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.254296291517349</v>
@@ -16351,7 +16201,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.783246861191035</v>
+        <v>1.784160806387199</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.239141440307449</v>
@@ -16440,7 +16290,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.782332045886039</v>
+        <v>1.781252798828747</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.187354721471214</v>
@@ -16529,7 +16379,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.785820263961687</v>
+        <v>1.781831301704037</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.415928434859359</v>
@@ -16618,7 +16468,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.783291126324513</v>
+        <v>1.780872457428071</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.327254667050221</v>
@@ -16707,7 +16557,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.793443645925008</v>
+        <v>1.792231218922723</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.827911682792791</v>
@@ -16796,7 +16646,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.802479842947187</v>
+        <v>1.798044972828351</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>4.465892130703904</v>
@@ -16885,7 +16735,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.794637364894952</v>
+        <v>1.79117997286823</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.873998492783664</v>
@@ -16974,7 +16824,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.798900546263077</v>
+        <v>1.792997789411927</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>4.183754812927869</v>
@@ -17063,7 +16913,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.808473152385003</v>
+        <v>1.799923924701801</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.623299242105724</v>
@@ -17152,7 +17002,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.791365820994901</v>
+        <v>1.780642802125584</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.149852100320024</v>
@@ -17241,7 +17091,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.788754644533468</v>
+        <v>1.778693391821561</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.00602647629317</v>
@@ -17330,7 +17180,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.794885571070121</v>
+        <v>1.7850030330989</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.976069210320234</v>
@@ -17419,7 +17269,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.802850522501006</v>
+        <v>1.789373324943704</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.352529195978623</v>
@@ -17508,7 +17358,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.756384262592204</v>
+        <v>1.753104053392914</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.333284123132908</v>
@@ -17597,7 +17447,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.750454415252507</v>
+        <v>1.746926855476118</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.333490118719289</v>
@@ -17686,7 +17536,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.69927258045796</v>
+        <v>1.703680108240002</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.577541059561249</v>
@@ -17775,7 +17625,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.702587539684926</v>
+        <v>1.708332970207485</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.60275278713743</v>
@@ -17864,7 +17714,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.707563585188453</v>
+        <v>1.714493369476924</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.584002256882308</v>
@@ -17953,7 +17803,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.69492810437803</v>
+        <v>1.703706847175323</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.557794432108918</v>
@@ -18042,7 +17892,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.693555647371198</v>
+        <v>1.701824047241626</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.718049919413142</v>
@@ -18131,7 +17981,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.685261546982886</v>
+        <v>1.691675136422432</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.594847419008933</v>
@@ -18220,7 +18070,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.684856395482293</v>
+        <v>1.689043159142322</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.623107546003445</v>
@@ -18309,7 +18159,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.677102238000338</v>
+        <v>1.677341255884877</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.690610692699838</v>
@@ -18398,7 +18248,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.676519336144215</v>
+        <v>1.675013520878468</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.411265133361081</v>
@@ -18487,7 +18337,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.678224270289551</v>
+        <v>1.679195880207777</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.690735559233038</v>
@@ -18576,7 +18426,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.683171264899287</v>
+        <v>1.681383017685518</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.505845894286838</v>
@@ -18665,7 +18515,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.683516664375709</v>
+        <v>1.682736819247857</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.530265350968131</v>
@@ -18754,7 +18604,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.687967437396137</v>
+        <v>1.682544954575831</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.762646388656681</v>
@@ -18843,7 +18693,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.712125216200916</v>
+        <v>1.697041587975846</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.726987846487449</v>
@@ -18932,7 +18782,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.700719461447944</v>
+        <v>1.684334124786008</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.350036814878954</v>
@@ -19021,7 +18871,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.740379763896798</v>
+        <v>1.724388612909962</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.056951846134439</v>
@@ -19110,7 +18960,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.705232328885258</v>
+        <v>1.695262755853142</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.247113146683449</v>
@@ -19199,7 +19049,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.705656448690479</v>
+        <v>1.692813650203688</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.880403529225395</v>
@@ -19288,7 +19138,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.72011714455312</v>
+        <v>1.708845481496753</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.286006904817786</v>
@@ -19377,7 +19227,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.710420139543694</v>
+        <v>1.700850118987393</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.074671632108581</v>
@@ -19466,7 +19316,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.712389097793649</v>
+        <v>1.698574373275147</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.862567891148095</v>
@@ -19555,7 +19405,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.717925548332998</v>
+        <v>1.706647988035711</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.086341115302493</v>
@@ -19644,7 +19494,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.727001744699489</v>
+        <v>1.717594865101729</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.964997329149834</v>
@@ -19733,7 +19583,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.726432405884928</v>
+        <v>1.711874118267573</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.864288709816703</v>
@@ -19822,7 +19672,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.727794045452369</v>
+        <v>1.710276088122056</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.218908971057678</v>
@@ -20108,7 +19958,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.523832220127847</v>
+        <v>1.505806432471656</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.385308994376707</v>
@@ -20197,7 +20047,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.522292664835606</v>
+        <v>1.504086457005049</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.090688908265452</v>
@@ -20286,7 +20136,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.5287645524752</v>
+        <v>1.508095607112324</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.504344643087652</v>
@@ -20375,7 +20225,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.532376322920774</v>
+        <v>1.512016189742465</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.324311919090096</v>
@@ -20464,7 +20314,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.524583371744046</v>
+        <v>1.500191509628757</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.356783638536767</v>
@@ -20553,7 +20403,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.510110398518396</v>
+        <v>1.489183847637713</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.301358414208968</v>
@@ -20642,7 +20492,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.519650398710605</v>
+        <v>1.494494067615635</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.490566727504295</v>
@@ -20731,7 +20581,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.523357700510564</v>
+        <v>1.496412756225937</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.397213447565341</v>
@@ -20820,7 +20670,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.486663669191204</v>
+        <v>1.463210903786198</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.346290468718428</v>
@@ -20909,7 +20759,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.492437351224463</v>
+        <v>1.467474358416292</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.252395713196747</v>
@@ -20998,7 +20848,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.510478456723513</v>
+        <v>1.486262098404431</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.443919046405131</v>
@@ -21087,7 +20937,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.522003353447756</v>
+        <v>1.497252224543068</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.527259512103143</v>
@@ -21176,7 +21026,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.524170598342351</v>
+        <v>1.501304113078938</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.467043050981639</v>
@@ -21265,7 +21115,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.521056048536767</v>
+        <v>1.505525252173454</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.350524970246487</v>
@@ -21354,7 +21204,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.528436799864451</v>
+        <v>1.513969316266646</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.45100065401887</v>
@@ -21443,7 +21293,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.537211503991825</v>
+        <v>1.529661357704187</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.224625107184</v>
@@ -21532,7 +21382,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.552640254649422</v>
+        <v>1.54411115624578</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.488590357946638</v>
@@ -21621,7 +21471,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.570998417572785</v>
+        <v>1.564973891295493</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.548245088465223</v>
@@ -21710,7 +21560,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.559245166930664</v>
+        <v>1.557887436571552</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.467169209128969</v>
@@ -21799,7 +21649,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.571025638622192</v>
+        <v>1.571726184555284</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.528482618587511</v>
@@ -21888,7 +21738,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.565791217107537</v>
+        <v>1.567143344196999</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.40425915881614</v>
@@ -21977,7 +21827,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.559740636249659</v>
+        <v>1.566538719160571</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.381410161748975</v>
@@ -22066,7 +21916,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.532208604893425</v>
+        <v>1.543652184272837</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.456328898058517</v>
@@ -22155,7 +22005,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.5470841553737</v>
+        <v>1.565121355597387</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.174566641904919</v>
@@ -22244,7 +22094,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.562032202199851</v>
+        <v>1.579985985564144</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.287394934206588</v>
@@ -22333,7 +22183,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.559478585244455</v>
+        <v>1.577389506957933</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.330838403660491</v>
@@ -22422,7 +22272,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.561974271392364</v>
+        <v>1.579562144785048</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.43463557328295</v>
@@ -22511,7 +22361,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.571148454308418</v>
+        <v>1.583014354856165</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.360688326841021</v>
@@ -22600,7 +22450,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.573042612104359</v>
+        <v>1.582979083749849</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.338252808613583</v>
@@ -22689,7 +22539,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.570603224552739</v>
+        <v>1.582755698686992</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.283730097489943</v>
@@ -22778,7 +22628,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.569521871039205</v>
+        <v>1.575907683363907</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.32248530068013</v>
@@ -22867,7 +22717,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.574281957974708</v>
+        <v>1.578988879979758</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.380321291898268</v>
@@ -22956,7 +22806,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.56887908596778</v>
+        <v>1.571307321051704</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.462336588620747</v>
@@ -23045,7 +22895,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.582691521834478</v>
+        <v>1.580626729484963</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.388949378892745</v>
@@ -23134,7 +22984,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.582511185560622</v>
+        <v>1.576085753592754</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.377171790326135</v>
@@ -23223,7 +23073,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.59098601618168</v>
+        <v>1.58240064824278</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.541614632996798</v>
@@ -23312,7 +23162,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.566241516346186</v>
+        <v>1.55909814801126</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.359503088526504</v>
@@ -23401,7 +23251,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.591467525397561</v>
+        <v>1.577339391827249</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.402804659127621</v>
@@ -23490,7 +23340,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.612221409737345</v>
+        <v>1.588972584674889</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.425091350364548</v>
@@ -23579,7 +23429,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.595516667901749</v>
+        <v>1.573691093352222</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.493209907265393</v>
@@ -23668,7 +23518,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.593595143411802</v>
+        <v>1.571903916875729</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.445046203204211</v>
@@ -23757,7 +23607,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.58712271283231</v>
+        <v>1.566415108359151</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.367387888123267</v>
@@ -23846,7 +23696,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.580155958189921</v>
+        <v>1.565723587451395</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.416774787855281</v>
@@ -23935,7 +23785,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.565457197066677</v>
+        <v>1.555615217465804</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.435799073281948</v>
@@ -24024,7 +23874,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.575944271868085</v>
+        <v>1.560951420402988</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.356500946077221</v>
@@ -24113,7 +23963,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.5720035396941</v>
+        <v>1.560047760766397</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.499044965402271</v>
@@ -24202,7 +24052,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.560356515195996</v>
+        <v>1.553789174923794</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.424534044267662</v>
@@ -24291,7 +24141,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.557038219604586</v>
+        <v>1.548778217762651</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.478769297422151</v>
@@ -24380,7 +24230,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.549042887652311</v>
+        <v>1.539896200908793</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.458633074950301</v>
@@ -24469,7 +24319,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.535225234108637</v>
+        <v>1.533428360187797</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.433260878783634</v>
@@ -24558,7 +24408,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.516486989233911</v>
+        <v>1.515298045578343</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.341868832167433</v>
@@ -24647,7 +24497,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.55435410179036</v>
+        <v>1.546755758011895</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.175577043607404</v>
@@ -24736,7 +24586,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.555360726513004</v>
+        <v>1.553231238586151</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.517079376801328</v>
@@ -24825,7 +24675,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.559549332706271</v>
+        <v>1.557834186913297</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.580579099918942</v>
@@ -24914,7 +24764,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.571530219256569</v>
+        <v>1.566013423502999</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.619103018940142</v>
@@ -25003,7 +24853,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.580075603056113</v>
+        <v>1.574250271254824</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.565784618559695</v>
@@ -25092,7 +24942,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.588628833707059</v>
+        <v>1.581830317244564</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.613845571958274</v>
@@ -25181,7 +25031,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.591962273263707</v>
+        <v>1.582669776297408</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.427631786978427</v>
@@ -25270,7 +25120,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.607331607568694</v>
+        <v>1.596398301659844</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.59589834916108</v>
@@ -25359,7 +25209,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.593787523040073</v>
+        <v>1.589839059996465</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.522563855958257</v>
@@ -25448,7 +25298,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.59999639280915</v>
+        <v>1.59368883295048</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.458906618391556</v>
@@ -25537,7 +25387,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.598770274813656</v>
+        <v>1.593604284007883</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.438359287198876</v>
@@ -25626,7 +25476,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.5949953928334</v>
+        <v>1.588784794526813</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.554676525333105</v>
@@ -25715,7 +25565,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.597969006498722</v>
+        <v>1.585293314827547</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.547011006340966</v>
@@ -25804,7 +25654,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.615410408887308</v>
+        <v>1.59915218000184</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.408077974500691</v>
@@ -25893,7 +25743,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.650757383270558</v>
+        <v>1.626690891162362</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.267361264794775</v>
@@ -25982,7 +25832,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.658917259463973</v>
+        <v>1.635945717449656</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.038560107248285</v>
@@ -26071,7 +25921,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.665157609069729</v>
+        <v>1.637206544685746</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.118734608493098</v>
@@ -26357,7 +26207,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.401697883485938</v>
+        <v>1.418470350205909</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.111505695273851</v>
@@ -26446,7 +26296,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.392447698249947</v>
+        <v>1.411337447088599</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.066735505154863</v>
@@ -26535,7 +26385,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.380631855465494</v>
+        <v>1.399732622741726</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.041422613150853</v>
@@ -26624,7 +26474,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.396049210030473</v>
+        <v>1.41703321846067</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.990979290513039</v>
@@ -26713,7 +26563,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.443231138935483</v>
+        <v>1.462791184267653</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.098094221729153</v>
@@ -26802,7 +26652,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.410482244269335</v>
+        <v>1.427225658354059</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.086645004766579</v>
@@ -26891,7 +26741,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.393492838624295</v>
+        <v>1.412191737104</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.118616572891594</v>
@@ -26980,7 +26830,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.386221971350701</v>
+        <v>1.4053458564872</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.145391461237921</v>
@@ -27069,7 +26919,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.382932229983216</v>
+        <v>1.402038798785904</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.163932681174741</v>
@@ -27158,7 +27008,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.431654681705182</v>
+        <v>1.447828853299725</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.15955002087494</v>
@@ -27247,7 +27097,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.439434566698953</v>
+        <v>1.452546958046439</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.048840581674584</v>
@@ -27336,7 +27186,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.440037274316704</v>
+        <v>1.450959487590701</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.065951329111011</v>
@@ -27425,7 +27275,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.388194729311692</v>
+        <v>1.405544852746203</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.079638487336013</v>
@@ -27514,7 +27364,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.38476308320302</v>
+        <v>1.404266813721986</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.088979685870495</v>
@@ -27603,7 +27453,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.378369127284606</v>
+        <v>1.394501805602387</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.130398116709858</v>
@@ -27692,7 +27542,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.423030706831579</v>
+        <v>1.438731929339193</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.078349366182988</v>
@@ -27781,7 +27631,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.423670302024312</v>
+        <v>1.437128695017516</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.146067074950155</v>
@@ -27870,7 +27720,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.454970127742421</v>
+        <v>1.467322737931506</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.176388332571109</v>
@@ -27959,7 +27809,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.406085062153848</v>
+        <v>1.422559545905356</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.148233256456026</v>
@@ -28048,7 +27898,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.411784737463146</v>
+        <v>1.428440728256467</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.097006491348274</v>
@@ -28137,7 +27987,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.444741864967376</v>
+        <v>1.460203072801116</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.94029375314205</v>
@@ -28226,7 +28076,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.443216308048253</v>
+        <v>1.459237341138397</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.128905687101616</v>
@@ -28315,7 +28165,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.450113035658593</v>
+        <v>1.468179177187116</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.168537650377079</v>
@@ -28404,7 +28254,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.453595029446966</v>
+        <v>1.472834059714677</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.201684359875189</v>
@@ -28493,7 +28343,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.449323352827727</v>
+        <v>1.471263409726554</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.191286179678326</v>
@@ -28582,7 +28432,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.435760568317405</v>
+        <v>1.455589724143425</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.131525306281076</v>
@@ -28671,7 +28521,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.402616199848159</v>
+        <v>1.422736762958873</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.974903436399705</v>
@@ -28760,7 +28610,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.409647100513657</v>
+        <v>1.431437084341462</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.157599970342609</v>
@@ -28849,7 +28699,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.405995143845041</v>
+        <v>1.425936193029016</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.117997186645594</v>
@@ -28938,7 +28788,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.411398801810817</v>
+        <v>1.429682141350955</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.08907511061693</v>
@@ -29027,7 +28877,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.413355356055589</v>
+        <v>1.43410632682694</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.14025194064044</v>
@@ -29116,7 +28966,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.417812792798641</v>
+        <v>1.439806718626941</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.143954738933478</v>
@@ -29205,7 +29055,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.412963160616935</v>
+        <v>1.434567779603408</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.012191967861297</v>
@@ -29294,7 +29144,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.464411393188229</v>
+        <v>1.479368750199328</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.008911511184329</v>
@@ -29383,7 +29233,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.46064905082076</v>
+        <v>1.473016557270812</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.07245648725839</v>
@@ -29472,7 +29322,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.465564713463352</v>
+        <v>1.482128980119142</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.032910339706409</v>
@@ -29561,7 +29411,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.501817843652892</v>
+        <v>1.515919973666633</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.0405481886687</v>
@@ -29650,7 +29500,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.488223065920707</v>
+        <v>1.499066042396536</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.065037925985223</v>
@@ -29739,7 +29589,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.455946995657281</v>
+        <v>1.469124328395052</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.068706936009232</v>
@@ -29828,7 +29678,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.456815306510663</v>
+        <v>1.470389030609325</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.088713422276342</v>
@@ -29917,7 +29767,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.51228636188495</v>
+        <v>1.524411430793346</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.169105404395817</v>
@@ -30006,7 +29856,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.535907259250263</v>
+        <v>1.541719173635845</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.294069856901107</v>
@@ -30095,7 +29945,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.571656241908094</v>
+        <v>1.576701113608006</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.317647780905093</v>
@@ -30184,7 +30034,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.503356786529835</v>
+        <v>1.515047900193998</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.111576881528602</v>
@@ -30273,7 +30123,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.512028664545812</v>
+        <v>1.52591747504976</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.108481845455672</v>
@@ -30362,7 +30212,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.511499591884334</v>
+        <v>1.523985036491115</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.16005588167221</v>
@@ -30451,7 +30301,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.511586771375157</v>
+        <v>1.5245987863424</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.181040157807742</v>
@@ -30540,7 +30390,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.52411679661447</v>
+        <v>1.531081390465596</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.183010076038161</v>
@@ -30629,7 +30479,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.484542381078095</v>
+        <v>1.503013834629655</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.145515365029047</v>
@@ -30718,7 +30568,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.487474615429634</v>
+        <v>1.504060802632683</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.137301610991665</v>
@@ -30807,7 +30657,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.472905278548609</v>
+        <v>1.491835169265458</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.21010728527929</v>
@@ -30896,7 +30746,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.476643866868315</v>
+        <v>1.490061410831833</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.022326718915997</v>
@@ -30985,7 +30835,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.445965869467953</v>
+        <v>1.465477915198172</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.165460824635734</v>
@@ -31074,7 +30924,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.456791252563487</v>
+        <v>1.47608119105189</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.216287732267174</v>
@@ -31163,7 +31013,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.458524215176544</v>
+        <v>1.476894458053561</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.153477099116214</v>
@@ -31252,7 +31102,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.428275927901829</v>
+        <v>1.447388547604733</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.156974216524117</v>
@@ -31341,7 +31191,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.437151208653715</v>
+        <v>1.455239839283316</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.236373299737993</v>
@@ -31430,7 +31280,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.430438938501112</v>
+        <v>1.449758456224395</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.086672218170599</v>
@@ -31519,7 +31369,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.483677976129589</v>
+        <v>1.4978365693451</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.133966958143536</v>
@@ -31608,7 +31458,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.480774872812595</v>
+        <v>1.495444178616416</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.114133844082379</v>
@@ -31697,7 +31547,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.475090827884241</v>
+        <v>1.490886467046387</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.211284624465578</v>
@@ -31786,7 +31636,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.478570419554759</v>
+        <v>1.493403923571514</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.118089302507785</v>
@@ -31875,7 +31725,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.489573509633296</v>
+        <v>1.504793483739198</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>1.930082089507209</v>
@@ -31964,7 +31814,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.473293826977625</v>
+        <v>1.490054170375681</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.144899844017933</v>
@@ -32053,7 +31903,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.468302473449436</v>
+        <v>1.485640164480756</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.266755922575189</v>
@@ -32142,7 +31992,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.477657763158148</v>
+        <v>1.495086795229408</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.203139456020341</v>
@@ -32231,7 +32081,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.490620648636909</v>
+        <v>1.508564722100573</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.095416591433512</v>
@@ -32320,7 +32170,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.536393543935094</v>
+        <v>1.548777323317663</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.160648148647634</v>
@@ -32606,7 +32456,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.623758335395857</v>
+        <v>1.612065878372486</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.954171966338183</v>
@@ -32695,7 +32545,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.629045735083262</v>
+        <v>1.615693794119297</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.577835971899139</v>
@@ -32784,7 +32634,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.647614382074153</v>
+        <v>1.636623358213257</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.227758009397125</v>
@@ -32873,7 +32723,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.653708784456808</v>
+        <v>1.64370149451895</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.056340154365323</v>
@@ -32962,7 +32812,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.67361695385306</v>
+        <v>1.664447289954071</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.14287046482029</v>
@@ -33051,7 +32901,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.668558105398598</v>
+        <v>1.659492916394536</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.991674883860217</v>
@@ -33140,7 +32990,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.689314034326334</v>
+        <v>1.678737085958958</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.25540870981714</v>
@@ -33229,7 +33079,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.701273856429391</v>
+        <v>1.689409554790548</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.076074871309795</v>
@@ -33318,7 +33168,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.706529508659378</v>
+        <v>1.69744522313575</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.379286231680198</v>
@@ -33407,7 +33257,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.702803928123259</v>
+        <v>1.689256704639608</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.309595796904524</v>
@@ -33496,7 +33346,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.705561901887532</v>
+        <v>1.691255335422502</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.426051734961903</v>
@@ -33585,7 +33435,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.716992211492897</v>
+        <v>1.706865624703909</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.126202808555063</v>
@@ -33674,7 +33524,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.722983607020829</v>
+        <v>1.722049518939956</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.33631038390247</v>
@@ -33763,7 +33613,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.727992262622429</v>
+        <v>1.725398633352997</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.137280809379923</v>
@@ -33852,7 +33702,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.725301521195844</v>
+        <v>1.722943732767016</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.3277331963488</v>
@@ -33941,7 +33791,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.725114632802413</v>
+        <v>1.726149230514001</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.208742229034464</v>
@@ -34030,7 +33880,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.73864164046529</v>
+        <v>1.73843976948842</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.312211929370036</v>
@@ -34119,7 +33969,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.735240669308382</v>
+        <v>1.730878478796894</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.595200646267713</v>
@@ -34208,7 +34058,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.745660940544684</v>
+        <v>1.739300690753133</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.42380559036546</v>
@@ -34297,7 +34147,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.749759892383694</v>
+        <v>1.735233812015472</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.43112945912819</v>
@@ -34386,7 +34236,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.755895110527639</v>
+        <v>1.739994771954411</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.351305630163681</v>
@@ -34475,7 +34325,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.745976076166041</v>
+        <v>1.735238485534989</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.232622887335751</v>
@@ -34564,7 +34414,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.738130390418513</v>
+        <v>1.728469833239048</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.137729534574391</v>
@@ -34653,7 +34503,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.739492096307065</v>
+        <v>1.728226855656269</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.228812871383799</v>
@@ -34742,7 +34592,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.7518121507247</v>
+        <v>1.742890435465462</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.620907138853289</v>
@@ -34831,7 +34681,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.755089633088384</v>
+        <v>1.747823491743657</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.360731093171001</v>
@@ -34920,7 +34770,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.753813656384738</v>
+        <v>1.740920689176359</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.520882784972271</v>
@@ -35009,7 +34859,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.753942583473641</v>
+        <v>1.739849913751121</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.662994274658497</v>
@@ -35098,7 +34948,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.752362435558626</v>
+        <v>1.737606341620742</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.34642940923026</v>
@@ -35187,7 +35037,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.759808072925042</v>
+        <v>1.745470733709196</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.488615587622586</v>
@@ -35276,7 +35126,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.747629436321585</v>
+        <v>1.732503252581856</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.740780192861531</v>
@@ -35365,7 +35215,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.747042128245621</v>
+        <v>1.729677035091769</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.68817838497581</v>
@@ -35454,7 +35304,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.742342619297898</v>
+        <v>1.726748734916783</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.283848453993651</v>
@@ -35543,7 +35393,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.748131855846878</v>
+        <v>1.73686925411402</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.567590823852326</v>
@@ -35632,7 +35482,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.741517171016256</v>
+        <v>1.734453132452508</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.998204292197622</v>
@@ -35721,7 +35571,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.741004170153311</v>
+        <v>1.736207882298436</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.528274580275265</v>
@@ -35810,7 +35660,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.736846466548952</v>
+        <v>1.731377917016923</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.85821332389818</v>
@@ -35899,7 +35749,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.703525105334802</v>
+        <v>1.704957916255474</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.594420044747027</v>
@@ -35988,7 +35838,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.703300536759746</v>
+        <v>1.705009269175623</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.523848807174197</v>
@@ -36077,7 +35927,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.697993583031002</v>
+        <v>1.697632141656565</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.603059525602813</v>
@@ -36166,7 +36016,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.697588069358558</v>
+        <v>1.693025893143524</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.594144240309103</v>
@@ -36255,7 +36105,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.674791387083339</v>
+        <v>1.671375871001843</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.497870818575867</v>
@@ -36344,7 +36194,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.669825139798565</v>
+        <v>1.666274727283714</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.46538166987999</v>
@@ -36433,7 +36283,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.64632249305813</v>
+        <v>1.647580356129761</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.557152239351166</v>
@@ -36522,7 +36372,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.650688983430146</v>
+        <v>1.647001573879787</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.647067596326824</v>
@@ -36611,7 +36461,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.647134182310782</v>
+        <v>1.647442945207513</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.488800771329216</v>
@@ -36700,7 +36550,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.642823654010429</v>
+        <v>1.642254183485923</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.531060131530112</v>
@@ -36789,7 +36639,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.6506287028392</v>
+        <v>1.651111915578056</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.648748060686337</v>
@@ -36878,7 +36728,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.651380083375891</v>
+        <v>1.646189564911476</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.554850547346915</v>
@@ -36967,7 +36817,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.654558920719275</v>
+        <v>1.651507808521876</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.46681770428363</v>
@@ -37056,7 +36906,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.655998105286921</v>
+        <v>1.654162801301126</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.519845776860039</v>
@@ -37145,7 +36995,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.680043830995642</v>
+        <v>1.668985191284978</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.359893419739349</v>
@@ -37234,7 +37084,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.692849546585464</v>
+        <v>1.685376907558041</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.984117875721276</v>
@@ -37323,7 +37173,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.691381129502695</v>
+        <v>1.684602951135055</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.777884896940834</v>
@@ -37412,7 +37262,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.69762937676992</v>
+        <v>1.689925455919201</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.919004349711932</v>
@@ -37501,7 +37351,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.701337476844452</v>
+        <v>1.690595012470667</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.981871247815141</v>
@@ -37590,7 +37440,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.70640077064325</v>
+        <v>1.701662958815048</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.03152614997503</v>
@@ -37679,7 +37529,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.688925159279477</v>
+        <v>1.682172785794338</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.568952139648653</v>
@@ -37768,7 +37618,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.695937948398998</v>
+        <v>1.693382985568584</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.171253037438648</v>
@@ -37857,7 +37707,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.6722449739458</v>
+        <v>1.676930191976899</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.182001137724081</v>
@@ -37946,7 +37796,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.68744644178791</v>
+        <v>1.686860676374841</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.665450715780926</v>
@@ -38035,7 +37885,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.684899850664917</v>
+        <v>1.68841838999288</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.022973690395594</v>
@@ -38124,7 +37974,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.687828864251444</v>
+        <v>1.690370302089398</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.094606902875182</v>
@@ -38213,7 +38063,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.680586185869994</v>
+        <v>1.686298771093733</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.094549970041447</v>
@@ -38302,7 +38152,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.67602779278611</v>
+        <v>1.683617247114936</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.081858891748634</v>
@@ -38391,7 +38241,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.67495249369613</v>
+        <v>1.683807857794639</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.003375085523146</v>
@@ -38480,7 +38330,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.672258572041196</v>
+        <v>1.681765489619338</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.164871754156147</v>
@@ -38569,7 +38419,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.676427760844243</v>
+        <v>1.685133165372315</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.946884577315887</v>
@@ -38855,7 +38705,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.314549181842572</v>
+        <v>1.298504771550461</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.124109455013294</v>
@@ -38944,7 +38794,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.305106181555025</v>
+        <v>1.287757387566772</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.015461793857486</v>
@@ -39033,7 +38883,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.313171150852975</v>
+        <v>1.300087425402783</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.178184272627242</v>
@@ -39122,7 +38972,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.318908389305743</v>
+        <v>1.311986709451714</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.185716287870046</v>
@@ -39211,7 +39061,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.320221465120357</v>
+        <v>1.311659051395538</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.374995759218352</v>
@@ -39300,7 +39150,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.331508668631418</v>
+        <v>1.322537197684601</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.119853262785659</v>
@@ -39389,7 +39239,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.331467531019985</v>
+        <v>1.314856861938698</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.400048347817361</v>
@@ -39478,7 +39328,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.327641934531758</v>
+        <v>1.318794210884698</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.20099518935298</v>
@@ -39567,7 +39417,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.329080554698259</v>
+        <v>1.322384083911667</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.303957563154402</v>
@@ -39656,7 +39506,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.321111074316248</v>
+        <v>1.31870905950465</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.19081703166744</v>
@@ -39745,7 +39595,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.323226143620404</v>
+        <v>1.318350636789136</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.350691408780072</v>
@@ -39834,7 +39684,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.333914080194453</v>
+        <v>1.329770165622461</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.338620722819883</v>
@@ -39923,7 +39773,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.330792707682861</v>
+        <v>1.325451923673011</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.471409526162534</v>
@@ -40012,7 +39862,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.329829988667476</v>
+        <v>1.323585078262769</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.285895309831864</v>
@@ -40101,7 +39951,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.353701597363852</v>
+        <v>1.346475022343146</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.45709711102959</v>
@@ -40190,7 +40040,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.35501032121989</v>
+        <v>1.346697535999281</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.448522323699256</v>
@@ -40279,7 +40129,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.37475992731016</v>
+        <v>1.364607036297325</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.233470793111131</v>
@@ -40368,7 +40218,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.374275439316444</v>
+        <v>1.366092601134182</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.615230695654596</v>
@@ -40457,7 +40307,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.380734239506739</v>
+        <v>1.371282763101147</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.532124787766222</v>
@@ -40546,7 +40396,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.377175155973159</v>
+        <v>1.369774863418809</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.619616973843848</v>
@@ -40635,7 +40485,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.369075588089061</v>
+        <v>1.362049735734699</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.473407225350035</v>
@@ -40724,7 +40574,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.389355039801337</v>
+        <v>1.383879806558327</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.440615422333286</v>
@@ -40813,7 +40663,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.38238962322336</v>
+        <v>1.375066637008293</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.387403330118166</v>
@@ -40902,7 +40752,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.381507839039817</v>
+        <v>1.373835871676186</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.5433979041198</v>
@@ -40991,7 +40841,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.378700080208685</v>
+        <v>1.371861303135399</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.589580853160201</v>
@@ -41080,7 +40930,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.374024676047187</v>
+        <v>1.369915446979861</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.57853546258784</v>
@@ -41169,7 +41019,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.367328410844165</v>
+        <v>1.366389000660555</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.410901677896577</v>
@@ -41258,7 +41108,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.36375539216148</v>
+        <v>1.366338482417798</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.655995412267117</v>
@@ -41347,7 +41197,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.365888254789197</v>
+        <v>1.365641431935001</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.513036870364823</v>
@@ -41436,7 +41286,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.369620108342833</v>
+        <v>1.365217269982363</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.706074144857142</v>
@@ -41525,7 +41375,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.372492612756852</v>
+        <v>1.371328820125636</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.422741646941378</v>
@@ -41614,7 +41464,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.368730828353899</v>
+        <v>1.368050204715185</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.661127207838974</v>
@@ -41703,7 +41553,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.359348463016136</v>
+        <v>1.355240796873493</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.269729292239423</v>
@@ -41792,7 +41642,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.361226999994739</v>
+        <v>1.352589439113592</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.537347573505293</v>
@@ -41881,7 +41731,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.367100180739414</v>
+        <v>1.358898549234663</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.41528830550173</v>
@@ -41970,7 +41820,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.368715540007239</v>
+        <v>1.362527890326387</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.524341880191314</v>
@@ -42059,7 +41909,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.371422363778416</v>
+        <v>1.360001406174367</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.400513400015709</v>
@@ -42148,7 +41998,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.369576928137094</v>
+        <v>1.356477454101792</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.567523859092057</v>
@@ -42237,7 +42087,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.370183462318542</v>
+        <v>1.35286373654755</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.468005517353749</v>
@@ -42326,7 +42176,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.375262065413393</v>
+        <v>1.358074360159451</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.520709032286008</v>
@@ -42415,7 +42265,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.386336493824553</v>
+        <v>1.362999647868152</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.429745370134529</v>
@@ -42504,7 +42354,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.386692954343029</v>
+        <v>1.355403765250606</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.474599675003402</v>
@@ -42593,7 +42443,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.376016628416995</v>
+        <v>1.347057931462277</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.498878723798136</v>
@@ -42682,7 +42532,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.373530096694903</v>
+        <v>1.342628486146106</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.563444781765186</v>
@@ -42771,7 +42621,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.37215599247403</v>
+        <v>1.337806861075618</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.49410544139918</v>
@@ -42860,7 +42710,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.362606149960167</v>
+        <v>1.323376772032863</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.430662992844518</v>
@@ -42949,7 +42799,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.350295713268425</v>
+        <v>1.316589774497393</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.589083518231617</v>
@@ -43038,7 +42888,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.364958148758886</v>
+        <v>1.332576148629692</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.486596032630608</v>
@@ -43127,7 +42977,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.352092228660593</v>
+        <v>1.324681226074115</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.576963628937308</v>
@@ -43216,7 +43066,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.352430536735086</v>
+        <v>1.327936349887267</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.663429254442804</v>
@@ -43305,7 +43155,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.349302228852719</v>
+        <v>1.324848142681924</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.674493553288867</v>
@@ -43394,7 +43244,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.345841272281598</v>
+        <v>1.324897601581615</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.60962231329555</v>
@@ -43483,7 +43333,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.335819789201454</v>
+        <v>1.317173170630853</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.485511928418334</v>
@@ -43572,7 +43422,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.345861238223861</v>
+        <v>1.331151850496527</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.697001923527004</v>
@@ -43661,7 +43511,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.344757719388309</v>
+        <v>1.331329977354628</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.67152898887177</v>
@@ -43750,7 +43600,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.347416547254277</v>
+        <v>1.331083591327395</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.598364727967625</v>
@@ -43839,7 +43689,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.356902418614567</v>
+        <v>1.348935109552459</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.655902171000895</v>
@@ -43928,7 +43778,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.367658209395713</v>
+        <v>1.362482004808866</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.638891472683842</v>
@@ -44017,7 +43867,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.362875491552451</v>
+        <v>1.359321159491462</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.376169796822165</v>
@@ -44106,7 +43956,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.360770293947947</v>
+        <v>1.360420064448249</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.642953171584404</v>
@@ -44195,7 +44045,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.366298140043863</v>
+        <v>1.367246071624764</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.445785113545349</v>
@@ -44284,7 +44134,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.370372748257096</v>
+        <v>1.365380134176845</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.641469073019741</v>
@@ -44373,7 +44223,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.381008950787782</v>
+        <v>1.368609601750776</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.740586834976629</v>
@@ -44462,7 +44312,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.378004459737641</v>
+        <v>1.366689768583405</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.741550752102106</v>
@@ -44551,7 +44401,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.378922599421245</v>
+        <v>1.366669256477006</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.670346033762633</v>
@@ -44640,7 +44490,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.377889827205932</v>
+        <v>1.363594692227301</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.70133149159211</v>
@@ -44729,7 +44579,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.386018011691195</v>
+        <v>1.369235148820567</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.655028920996948</v>
@@ -44818,7 +44668,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.395661383807684</v>
+        <v>1.379331835315358</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.618489582429492</v>
